--- a/configuration.xlsx
+++ b/configuration.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE35A67-F0B3-4082-9B8D-81C043232029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE827DB-099F-461F-BD48-2C960E50442B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2100" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -1300,8 +1300,8 @@
   <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="16.5"/>
@@ -1599,7 +1599,7 @@
         <v>154</v>
       </c>
       <c r="C21" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>152</v>
@@ -2417,21 +2417,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001577117E66FD52428EA7500518132BA0" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="db4255d9eb423baafe0f1cff170ed262">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2dcc9513-fcaa-4a96-ba30-c35eb5e0421b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3a92cc9c30552e3f0c57a62f6627eb7f" ns2:_="">
     <xsd:import namespace="2dcc9513-fcaa-4a96-ba30-c35eb5e0421b"/>
@@ -2615,24 +2600,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1650C86-818B-4C5F-85BF-D8BB24902BFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79E76BC6-FD13-4E9A-B822-542E612CA8CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FCE332B-DFCE-4B17-8283-69CD38C21839}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2648,4 +2631,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79E76BC6-FD13-4E9A-B822-542E612CA8CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1650C86-818B-4C5F-85BF-D8BB24902BFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>